--- a/wiki-files/RE2020_ONV_Outil_Saisie_Manuelle_v1_old.xlsx
+++ b/wiki-files/RE2020_ONV_Outil_Saisie_Manuelle_v1_old.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandrine-j.charrier\Box\Cerema\3B-Prod_Bat\B1-Perf_Gest_patrim_batiments\B13-Confort_ventil_bat\2020-DHUP-Club_Ventil_Public\Reserv_DHUP_Cerema\ONV\OutilSaisieManuelle\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="679"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16428" tabRatio="679" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Mode d'emploi" sheetId="8" r:id="rId1"/>
@@ -23,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="134">
   <si>
     <t>Version du schéma de fichier :</t>
   </si>
@@ -658,9 +653,6 @@
     <t>Cet onglet vise à préciser son mode de fonctionnement et les règles à respecter pour son utilisation.</t>
   </si>
   <si>
-    <t>0.5</t>
-  </si>
-  <si>
     <t>Bienvenue dans l'outil de saisie manuelle de l'Observatoire National Ventilation.</t>
   </si>
   <si>
@@ -976,9 +968,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="d/m/yy"/>
+    <numFmt numFmtId="165" formatCode="00000"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1502,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1589,6 +1582,26 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1627,6 +1640,42 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1635,8 +1684,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1664,59 +1711,8 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1934,18 +1930,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -1956,7 +1952,7 @@
     <row r="3" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34"/>
     </row>
-    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>56</v>
       </c>
@@ -1984,25 +1980,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:13" s="35" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
-        <v>124</v>
+    <row r="8" spans="1:13" s="35" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="64" t="s">
+        <v>123</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-    </row>
-    <row r="9" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:13" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+    </row>
+    <row r="9" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:13" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>108</v>
       </c>
@@ -2072,22 +2068,22 @@
       <c r="L13" s="44"/>
       <c r="M13" s="45"/>
     </row>
-    <row r="14" spans="1:13" s="35" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59" t="s">
+    <row r="14" spans="1:13" s="35" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="60"/>
-      <c r="L14" s="60"/>
-      <c r="M14" s="61"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="71"/>
     </row>
     <row r="15" spans="1:13" s="35" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="46"/>
@@ -2104,144 +2100,144 @@
       <c r="L15" s="44"/>
       <c r="M15" s="45"/>
     </row>
-    <row r="16" spans="1:13" s="35" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="35" customFormat="1" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="46"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="72" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="63"/>
-    </row>
-    <row r="17" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="72"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="74" t="s">
         <v>117</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="65"/>
-    </row>
-    <row r="18" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74"/>
+      <c r="L17" s="74"/>
+      <c r="M17" s="75"/>
+    </row>
+    <row r="18" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="46"/>
-      <c r="B18" s="66" t="s">
+      <c r="B18" s="76" t="s">
         <v>116</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="67"/>
-    </row>
-    <row r="19" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="77"/>
+    </row>
+    <row r="19" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="46"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="67"/>
-    </row>
-    <row r="20" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="77"/>
+    </row>
+    <row r="20" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="46"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="67"/>
-    </row>
-    <row r="21" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+    </row>
+    <row r="21" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="46"/>
-      <c r="B21" s="66" t="s">
+      <c r="B21" s="76" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="67"/>
-    </row>
-    <row r="22" spans="1:21" s="35" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="I21" s="76"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="76"/>
+      <c r="L21" s="76"/>
+      <c r="M21" s="77"/>
+    </row>
+    <row r="22" spans="1:21" s="35" customFormat="1" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="46"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="65" t="s">
         <v>113</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="56"/>
-    </row>
-    <row r="23" spans="1:21" s="35" customFormat="1" ht="25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="66"/>
+    </row>
+    <row r="23" spans="1:21" s="35" customFormat="1" ht="25.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="48"/>
-      <c r="B23" s="57" t="s">
+      <c r="B23" s="67" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="57"/>
-      <c r="L23" s="57"/>
-      <c r="M23" s="58"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="68"/>
     </row>
     <row r="24" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:21" s="35" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="49" t="s">
         <v>111</v>
       </c>
@@ -2258,44 +2254,44 @@
       <c r="L25" s="50"/>
       <c r="M25" s="50"/>
     </row>
-    <row r="26" spans="1:21" s="53" customFormat="1" ht="39" x14ac:dyDescent="0.3">
-      <c r="A26" s="102" t="s">
+    <row r="26" spans="1:21" s="53" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A26" s="62" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="86" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>128</v>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="86"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="57"/>
+    </row>
+    <row r="27" spans="1:21" ht="49.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="61" t="s">
+        <v>126</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-      <c r="J26" s="91"/>
-      <c r="K26" s="91"/>
-      <c r="L26" s="91"/>
-      <c r="M26" s="91"/>
-      <c r="N26" s="92"/>
-    </row>
-    <row r="27" spans="1:21" ht="49" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="101" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="94"/>
-      <c r="G27" s="94"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="94"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="95"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="87"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="87"/>
+      <c r="J27" s="87"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="88"/>
       <c r="N27" s="52"/>
       <c r="O27" s="52"/>
       <c r="P27" s="52"/>
@@ -2306,82 +2302,82 @@
       <c r="U27" s="52"/>
     </row>
     <row r="28" spans="1:21" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="103" t="s">
+      <c r="A28" s="81" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="B28" s="87" t="s">
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="85"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+    </row>
+    <row r="29" spans="1:21" ht="27.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="82"/>
+      <c r="B29" s="89" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="84"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="59"/>
+    </row>
+    <row r="30" spans="1:21" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="83"/>
+      <c r="B30" s="78" t="s">
         <v>132</v>
       </c>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="87"/>
-      <c r="J28" s="87"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="89"/>
-      <c r="P28" s="89"/>
-      <c r="Q28" s="89"/>
-      <c r="R28" s="88"/>
-      <c r="S28" s="90"/>
-      <c r="T28" s="90"/>
-      <c r="U28" s="90"/>
-    </row>
-    <row r="29" spans="1:21" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="104"/>
-      <c r="B29" s="106" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="97"/>
-    </row>
-    <row r="30" spans="1:21" ht="34" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="105"/>
-      <c r="B30" s="107" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="99"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="100"/>
-      <c r="N30" s="97"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="79"/>
+      <c r="I30" s="79"/>
+      <c r="J30" s="79"/>
+      <c r="K30" s="79"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="80"/>
+      <c r="N30" s="59"/>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" s="96"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="98"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="98"/>
-      <c r="G31" s="98"/>
-      <c r="H31" s="98"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="98"/>
-      <c r="L31" s="98"/>
-      <c r="M31" s="98"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2414,20 +2410,20 @@
   </sheetPr>
   <dimension ref="A1:H1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="68.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" customWidth="1"/>
-    <col min="4" max="4" width="3.7265625" customWidth="1"/>
-    <col min="5" max="26" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="3.77734375" customWidth="1"/>
+    <col min="5" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="33"/>
       <c r="C1" s="1"/>
@@ -2436,20 +2432,20 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="32"/>
       <c r="C2" s="1"/>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="73"/>
-      <c r="G2" s="2" t="s">
-        <v>122</v>
+      <c r="F2" s="108"/>
+      <c r="G2" s="2">
+        <v>1</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2458,20 +2454,20 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="91"/>
+      <c r="E4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="71"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="93"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>61</v>
@@ -2490,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>62</v>
@@ -2501,7 +2497,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>63</v>
@@ -2512,7 +2508,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="17" t="s">
         <v>64</v>
@@ -2523,7 +2519,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="17" t="s">
         <v>65</v>
@@ -2534,25 +2530,25 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="E10" s="6"/>
       <c r="F10" s="7"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-      <c r="B11" s="68" t="s">
+      <c r="B11" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="91"/>
       <c r="E11" s="6"/>
       <c r="F11" s="7"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="11" t="s">
         <v>66</v>
@@ -2563,18 +2559,18 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="63"/>
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="11" t="s">
         <v>68</v>
@@ -2585,7 +2581,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="30" t="s">
         <v>69</v>
@@ -2596,7 +2592,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="30" t="s">
         <v>110</v>
@@ -2607,10 +2603,10 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C17" s="14"/>
       <c r="E17" s="6"/>
@@ -2618,7 +2614,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>70</v>
       </c>
@@ -2628,10 +2624,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="12"/>
       <c r="E19" s="6"/>
@@ -2639,7 +2635,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="13" t="s">
         <v>6</v>
@@ -2650,7 +2646,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="11" t="s">
         <v>71</v>
@@ -2661,7 +2657,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="15" t="s">
         <v>72</v>
@@ -2672,7 +2668,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="11" t="s">
         <v>89</v>
@@ -2683,7 +2679,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="C24" s="16"/>
       <c r="E24" s="6"/>
@@ -2691,18 +2687,18 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="69"/>
+      <c r="C25" s="91"/>
       <c r="E25" s="6"/>
       <c r="F25" s="7"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="17" t="s">
         <v>73</v>
@@ -2713,7 +2709,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>74</v>
@@ -2724,7 +2720,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>8</v>
@@ -2735,7 +2731,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>9</v>
       </c>
@@ -2745,7 +2741,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="4" t="s">
         <v>10</v>
@@ -2756,7 +2752,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="17" t="s">
         <v>11</v>
@@ -2767,7 +2763,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="17" t="s">
         <v>12</v>
@@ -2778,7 +2774,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="C33" s="16"/>
       <c r="E33" s="6"/>
@@ -2786,18 +2782,18 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="68" t="s">
+      <c r="B34" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="69"/>
+      <c r="C34" s="91"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="17" t="s">
         <v>75</v>
@@ -2808,7 +2804,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>91</v>
@@ -2819,7 +2815,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="17" t="s">
         <v>90</v>
@@ -2830,7 +2826,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="31" t="s">
         <v>92</v>
@@ -2841,7 +2837,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>93</v>
@@ -2852,7 +2848,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="17" t="s">
         <v>94</v>
@@ -2863,7 +2859,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="19" t="s">
         <v>14</v>
       </c>
@@ -2873,7 +2869,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="19" t="s">
         <v>15</v>
@@ -2884,7 +2880,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="19" t="s">
         <v>16</v>
@@ -2895,7 +2891,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>17</v>
@@ -2906,7 +2902,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>18</v>
@@ -2917,25 +2913,25 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="C47" s="71"/>
+      <c r="C47" s="93"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="17" t="s">
         <v>76</v>
@@ -2946,7 +2942,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="17" t="s">
         <v>77</v>
@@ -2957,7 +2953,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="17" t="s">
         <v>78</v>
@@ -2968,7 +2964,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="17" t="s">
         <v>79</v>
@@ -2979,7 +2975,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="8" t="s">
         <v>20</v>
@@ -2990,7 +2986,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>21</v>
       </c>
@@ -3000,7 +2996,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>95</v>
       </c>
@@ -3010,7 +3006,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
         <v>96</v>
       </c>
@@ -3020,7 +3016,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="17" t="s">
         <v>97</v>
       </c>
@@ -3030,7 +3026,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="4" t="s">
         <v>98</v>
       </c>
@@ -4992,7 +4988,7 @@
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B25:C25"/>
   </mergeCells>
-  <dataValidations count="13">
+  <dataValidations count="14">
     <dataValidation type="list" allowBlank="1" sqref="C32">
       <formula1>"Souple,Semi-rigide,Rigide métallique lisse,Rigide métallique spiralé,Rigide plastique"</formula1>
     </dataValidation>
@@ -5032,6 +5028,10 @@
     <dataValidation type="list" allowBlank="1" sqref="C27">
       <formula1>"Simple Flux Hygro A,Simple Flux Hygro B,Simple Flux Autoréglable,Double Flux,Simple Flux Gaz,Mécanique Ponctuelle,Mixte Simple et Double Flux"</formula1>
     </dataValidation>
+    <dataValidation type="textLength" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Format Code postal non valide" error="Le code postal doit être composé de 5 chiffres" sqref="C13">
+      <formula1>4</formula1>
+      <formula2>5</formula2>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5061,56 +5061,56 @@
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14.453125" customWidth="1"/>
+    <col min="1" max="3" width="14.44140625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" customWidth="1"/>
-    <col min="7" max="7" width="9.7265625" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="11" width="10.453125" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" customWidth="1"/>
-    <col min="13" max="13" width="9.453125" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" customWidth="1"/>
-    <col min="15" max="26" width="14.453125" customWidth="1"/>
+    <col min="10" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="9.77734375" customWidth="1"/>
+    <col min="15" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="98" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="80" t="s">
+      <c r="E1" s="100" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="76" t="s">
+      <c r="F1" s="96" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="69"/>
-    </row>
-    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="91"/>
+    </row>
+    <row r="2" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
       <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
@@ -5475,7 +5475,7 @@
       <c r="M23" s="21"/>
       <c r="N23" s="21"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="6"/>
@@ -11000,41 +11000,41 @@
       <selection activeCell="C1" sqref="C1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.26953125" customWidth="1"/>
-    <col min="4" max="5" width="14.453125" customWidth="1"/>
+    <col min="1" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.21875" customWidth="1"/>
+    <col min="4" max="5" width="14.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.453125" customWidth="1"/>
-    <col min="10" max="10" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="26" width="14.453125" customWidth="1"/>
+    <col min="7" max="7" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.44140625" customWidth="1"/>
+    <col min="10" max="10" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:10" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="81" t="s">
+      <c r="B1" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="82" t="s">
-        <v>130</v>
-      </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="82" t="s">
+      <c r="C1" s="102" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="86"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="106"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
       <c r="C2" s="25" t="s">
         <v>86</v>
       </c>
@@ -14490,13 +14490,13 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="27" t="s">
         <v>32</v>
       </c>
@@ -14611,12 +14611,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="28" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
         <v>55</v>
       </c>
